--- a/PlantTransExp/docs/2016_ViralTransmissionExp_ColonyLog.xlsx
+++ b/PlantTransExp/docs/2016_ViralTransmissionExp_ColonyLog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="0" windowWidth="22380" windowHeight="15660" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="840" yWindow="400" windowWidth="19760" windowHeight="11400" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Acute exposure experiment" sheetId="1" r:id="rId1"/>
+    <sheet name="Experiment Data" sheetId="1" r:id="rId1"/>
     <sheet name="Notes" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Plants" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="126">
   <si>
     <t>Notes</t>
   </si>
@@ -373,6 +373,33 @@
   </si>
   <si>
     <t>Exp</t>
+  </si>
+  <si>
+    <t>BF-5</t>
+  </si>
+  <si>
+    <t>BF-14</t>
+  </si>
+  <si>
+    <t>WC-33</t>
+  </si>
+  <si>
+    <t>BF-7</t>
+  </si>
+  <si>
+    <t>RC-17</t>
+  </si>
+  <si>
+    <t>BF-8</t>
+  </si>
+  <si>
+    <t>WC-10</t>
+  </si>
+  <si>
+    <t>BF-13</t>
+  </si>
+  <si>
+    <t>RC-2</t>
   </si>
 </sst>
 </file>
@@ -450,8 +477,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -569,7 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -609,6 +640,8 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -648,6 +681,8 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -980,7 +1015,7 @@
   <dimension ref="A1:AM43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
@@ -3220,10 +3255,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3256,7 +3294,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10">
-        <v>42607</v>
+        <v>42610</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -3265,16 +3303,16 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3282,7 +3320,7 @@
         <v>42607</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -3294,7 +3332,7 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -3302,7 +3340,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="10">
-        <v>42607</v>
+        <v>42608</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -3311,13 +3349,13 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -3325,22 +3363,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="10">
-        <v>42607</v>
+        <v>42609</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -3351,10 +3389,10 @@
         <v>42607</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -3363,7 +3401,7 @@
         <v>18</v>
       </c>
       <c r="F6">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -3371,22 +3409,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="10">
-        <v>42607</v>
+        <v>42608</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F7">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -3394,45 +3432,45 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="10">
-        <v>42608</v>
+        <v>42610</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="10">
-        <v>42608</v>
+        <v>42607</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -3440,76 +3478,67 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="10">
-        <v>42608</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
+        <v>42616</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="10">
-        <v>42608</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
+        <v>42615</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="10">
-        <v>42608</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
+        <v>42615</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="10">
-        <v>42608</v>
+        <v>42609</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -3518,13 +3547,13 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -3532,22 +3561,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="10">
-        <v>42609</v>
+        <v>42607</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
@@ -3558,19 +3587,19 @@
         <v>42609</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
@@ -3578,30 +3607,30 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="10">
-        <v>42609</v>
+        <v>42610</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
         <v>23</v>
       </c>
       <c r="F16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="10">
-        <v>42609</v>
+        <v>42608</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3610,13 +3639,13 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
@@ -3624,22 +3653,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="10">
-        <v>42609</v>
+        <v>42608</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
@@ -3647,137 +3676,125 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="10">
-        <v>42609</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
+        <v>42614</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
         <v>23</v>
       </c>
       <c r="F19">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="10">
-        <v>42610</v>
+        <v>42608</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="10">
-        <v>42610</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
+        <v>42614</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="10">
-        <v>42610</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
+        <v>42614</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
         <v>23</v>
       </c>
       <c r="F22">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="10">
-        <v>42610</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
+        <v>42616</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
         <v>23</v>
       </c>
       <c r="F23">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="10">
-        <v>42610</v>
+        <v>42612</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
         <v>23</v>
       </c>
       <c r="F24">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
         <v>26</v>
@@ -3785,53 +3802,47 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="10">
-        <v>42610</v>
-      </c>
-      <c r="B25">
-        <v>5</v>
+        <v>42614</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
         <v>23</v>
       </c>
       <c r="F25">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="10">
-        <v>42611</v>
-      </c>
-      <c r="B26">
-        <v>6</v>
+        <v>42614</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
         <v>23</v>
       </c>
       <c r="F26">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="10">
-        <v>42611</v>
+        <v>42610</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -3840,13 +3851,13 @@
         <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
         <v>23</v>
       </c>
       <c r="F27">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G27" t="s">
         <v>26</v>
@@ -3854,7 +3865,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="10">
-        <v>42611</v>
+        <v>42609</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3863,16 +3874,16 @@
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
         <v>23</v>
       </c>
       <c r="F28">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3880,19 +3891,19 @@
         <v>42611</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
         <v>23</v>
       </c>
       <c r="F29">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G29" t="s">
         <v>26</v>
@@ -3900,45 +3911,42 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="10">
-        <v>42611</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
+        <v>42614</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
         <v>23</v>
       </c>
       <c r="F30">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="10">
-        <v>42611</v>
+        <v>42612</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
         <v>23</v>
       </c>
       <c r="F31">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
         <v>26</v>
@@ -3948,103 +3956,112 @@
       <c r="A32" s="10">
         <v>42611</v>
       </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F32">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="10">
-        <v>42611</v>
+        <v>42612</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="E33" t="s">
         <v>23</v>
       </c>
       <c r="F33">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="10">
         <v>42611</v>
       </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F34">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="10">
-        <v>42612</v>
+        <v>42607</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F35">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="10">
-        <v>42612</v>
+        <v>42611</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
         <v>23</v>
       </c>
       <c r="F36">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>26</v>
@@ -4052,45 +4069,45 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="10">
-        <v>42612</v>
+        <v>42609</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E37" t="s">
         <v>23</v>
       </c>
       <c r="F37">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="10">
-        <v>42612</v>
+        <v>42611</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
         <v>23</v>
       </c>
       <c r="F38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
         <v>26</v>
@@ -4101,19 +4118,19 @@
         <v>42612</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
         <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E39" t="s">
         <v>23</v>
       </c>
       <c r="F39">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
         <v>26</v>
@@ -4121,193 +4138,214 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="10">
-        <v>42612</v>
+        <v>42608</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F40">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="10">
-        <v>42614</v>
+        <v>42610</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
         <v>23</v>
       </c>
       <c r="F41">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="10">
-        <v>42614</v>
+        <v>42612</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E42" t="s">
         <v>23</v>
       </c>
       <c r="F42">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="10">
-        <v>42614</v>
+        <v>42612</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
       </c>
       <c r="C43" t="s">
         <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E43" t="s">
         <v>23</v>
       </c>
       <c r="F43">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="10">
-        <v>42614</v>
+        <v>42611</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E44" t="s">
         <v>23</v>
       </c>
       <c r="F44">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="10">
-        <v>42614</v>
+        <v>42610</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E45" t="s">
         <v>23</v>
       </c>
       <c r="F45">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="10">
-        <v>42614</v>
+        <v>42609</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
       </c>
       <c r="C46" t="s">
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E46" t="s">
         <v>23</v>
       </c>
       <c r="F46">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="10">
-        <v>42615</v>
+        <v>42607</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
       </c>
       <c r="C47" t="s">
         <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F47">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="10">
-        <v>42615</v>
+        <v>42611</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F48">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="10">
-        <v>42616</v>
+        <v>42611</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -4316,35 +4354,281 @@
         <v>23</v>
       </c>
       <c r="F49">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="G49" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="10">
-        <v>42616</v>
+        <v>42611</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="E50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F50">
+        <v>49</v>
+      </c>
+      <c r="G50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="F51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="F52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="F53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="F54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="F55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="F56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="F57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="F58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="F59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="9">
+        <v>42978</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" t="s">
         <v>22</v>
       </c>
-      <c r="G50" t="s">
-        <v>32</v>
+      <c r="F60">
+        <v>59</v>
+      </c>
+      <c r="G60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="9">
+        <v>42978</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61">
+        <v>60</v>
+      </c>
+      <c r="G61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="9">
+        <v>42978</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62">
+        <v>61</v>
+      </c>
+      <c r="G62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="9">
+        <v>42978</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" t="s">
+        <v>120</v>
+      </c>
+      <c r="E63" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63">
+        <v>62</v>
+      </c>
+      <c r="G63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="9">
+        <v>42978</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64">
+        <v>63</v>
+      </c>
+      <c r="G64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="9">
+        <v>42978</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" t="s">
+        <v>122</v>
+      </c>
+      <c r="E65" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65">
+        <v>64</v>
+      </c>
+      <c r="G65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="9">
+        <v>42978</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66">
+        <v>65</v>
+      </c>
+      <c r="G66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="9">
+        <v>42978</v>
+      </c>
+      <c r="C67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" t="s">
+        <v>124</v>
+      </c>
+      <c r="E67" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67">
+        <v>66</v>
+      </c>
+      <c r="G67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="9">
+        <v>42978</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68">
+        <v>67</v>
+      </c>
+      <c r="G68" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:G50">
-    <sortCondition ref="A2:A50"/>
+    <sortCondition ref="F2:F50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/PlantTransExp/docs/2016_ViralTransmissionExp_ColonyLog.xlsx
+++ b/PlantTransExp/docs/2016_ViralTransmissionExp_ColonyLog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="400" windowWidth="19760" windowHeight="11400" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="720" yWindow="240" windowWidth="17300" windowHeight="15020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment Data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="126">
   <si>
     <t>Notes</t>
   </si>
@@ -477,8 +477,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -600,7 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="85">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -642,6 +644,7 @@
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -683,6 +686,7 @@
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1012,13 +1016,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM43"/>
+  <dimension ref="A1:AM51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1031,7 +1035,7 @@
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="10" width="14.33203125" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
     <col min="14" max="14" width="8.1640625" customWidth="1"/>
     <col min="15" max="15" width="9.33203125" customWidth="1"/>
     <col min="16" max="16" width="20.33203125" customWidth="1"/>
@@ -2832,6 +2836,12 @@
       </c>
     </row>
     <row r="38" spans="1:39">
+      <c r="A38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C38">
         <v>5</v>
       </c>
@@ -2876,6 +2886,12 @@
       </c>
     </row>
     <row r="39" spans="1:39">
+      <c r="A39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C39">
         <v>4</v>
       </c>
@@ -2920,6 +2936,12 @@
       </c>
     </row>
     <row r="40" spans="1:39">
+      <c r="A40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C40">
         <v>1</v>
       </c>
@@ -2964,6 +2986,12 @@
       </c>
     </row>
     <row r="41" spans="1:39">
+      <c r="A41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C41">
         <v>3</v>
       </c>
@@ -3008,6 +3036,12 @@
       </c>
     </row>
     <row r="42" spans="1:39">
+      <c r="A42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C42">
         <v>2</v>
       </c>
@@ -3052,6 +3086,12 @@
       </c>
     </row>
     <row r="43" spans="1:39">
+      <c r="A43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C43">
         <v>6</v>
       </c>
@@ -3094,6 +3134,31 @@
       <c r="AM43" s="10">
         <v>42636</v>
       </c>
+    </row>
+    <row r="44" spans="1:39">
+      <c r="B44" s="2"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:39">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:39">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:39">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:39">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3257,8 +3322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J66" sqref="J66"/>

--- a/PlantTransExp/docs/2016_ViralTransmissionExp_ColonyLog.xlsx
+++ b/PlantTransExp/docs/2016_ViralTransmissionExp_ColonyLog.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samanthaalger/AlgerProjects/PlantTransExp/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0484B7A-0DDB-1A41-8A89-B2CE9DDE1CAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="240" windowWidth="17300" windowHeight="15020" tabRatio="500"/>
+    <workbookView xWindow="2660" yWindow="4640" windowWidth="17300" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment Data" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="Plants" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="128">
   <si>
     <t>Notes</t>
   </si>
@@ -400,12 +406,18 @@
   </si>
   <si>
     <t>RC-2</t>
+  </si>
+  <si>
+    <t>BQCV</t>
+  </si>
+  <si>
+    <t>DWV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -691,6 +703,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1015,17 +1035,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AQ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomRight" activeCell="AP1" sqref="AP1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="17.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
@@ -1052,7 +1072,7 @@
     <col min="32" max="32" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1">
+    <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -1170,8 +1190,14 @@
       <c r="AM1" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:39">
+      <c r="AP1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>42599</v>
       </c>
@@ -1221,8 +1247,14 @@
       <c r="Q2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:39">
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>42599</v>
       </c>
@@ -1272,8 +1304,14 @@
       <c r="Q3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:39">
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>42599</v>
       </c>
@@ -1323,8 +1361,14 @@
       <c r="Q4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" s="15" customFormat="1">
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>42599</v>
       </c>
@@ -1342,8 +1386,14 @@
       <c r="G5" s="16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:39">
+      <c r="AP5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>42599</v>
       </c>
@@ -1393,8 +1443,14 @@
       <c r="Q6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:39">
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>42599</v>
       </c>
@@ -1444,8 +1500,14 @@
       <c r="Q7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:39">
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>42599</v>
       </c>
@@ -1495,8 +1557,14 @@
       <c r="Q8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:39">
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>42599</v>
       </c>
@@ -1546,8 +1614,14 @@
       <c r="Q9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:39">
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>42599</v>
       </c>
@@ -1597,8 +1671,14 @@
       <c r="Q10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:39">
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>42599</v>
       </c>
@@ -1648,8 +1728,14 @@
       <c r="Q11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:39">
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>42599</v>
       </c>
@@ -1699,8 +1785,14 @@
       <c r="Q12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:39">
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>42599</v>
       </c>
@@ -1750,8 +1842,14 @@
       <c r="Q13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:39">
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>42599</v>
       </c>
@@ -1801,8 +1899,14 @@
       <c r="Q14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:39">
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>42599</v>
       </c>
@@ -1852,8 +1956,14 @@
       <c r="Q15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:39">
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>42599</v>
       </c>
@@ -1905,8 +2015,14 @@
       <c r="Q16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>42599</v>
       </c>
@@ -1956,8 +2072,14 @@
       <c r="Q17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>42599</v>
       </c>
@@ -2007,8 +2129,14 @@
       <c r="Q18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>42599</v>
       </c>
@@ -2052,8 +2180,14 @@
       <c r="Q19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>42602</v>
       </c>
@@ -2103,8 +2237,14 @@
       <c r="Q20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>42602</v>
       </c>
@@ -2162,8 +2302,14 @@
       <c r="Z21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>42602</v>
       </c>
@@ -2221,8 +2367,14 @@
       <c r="Z22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>42602</v>
       </c>
@@ -2280,8 +2432,14 @@
       <c r="Z23">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>42602</v>
       </c>
@@ -2339,8 +2497,14 @@
       <c r="Z24">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>42602</v>
       </c>
@@ -2398,8 +2562,14 @@
       <c r="Z25">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>42605</v>
       </c>
@@ -2448,8 +2618,14 @@
       <c r="AF26">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>42605</v>
       </c>
@@ -2507,8 +2683,14 @@
       <c r="Z27">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:32" s="15" customFormat="1">
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>42605</v>
       </c>
@@ -2524,8 +2706,14 @@
       <c r="G28" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:32">
+      <c r="AP28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>42605</v>
       </c>
@@ -2574,8 +2762,14 @@
       <c r="AF29">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>42605</v>
       </c>
@@ -2624,8 +2818,14 @@
       <c r="AF30">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:32" s="15" customFormat="1">
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>42605</v>
       </c>
@@ -2639,8 +2839,14 @@
       <c r="G31" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:32" s="15" customFormat="1">
+      <c r="AP31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>42605</v>
       </c>
@@ -2654,8 +2860,14 @@
       <c r="G32" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:39">
+      <c r="AP32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>42605</v>
       </c>
@@ -2704,8 +2916,14 @@
       <c r="AF33">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:39">
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>42605</v>
       </c>
@@ -2754,8 +2972,14 @@
       <c r="AF34">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:39" s="15" customFormat="1">
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>42605</v>
       </c>
@@ -2769,8 +2993,14 @@
       <c r="G35" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:39" s="15" customFormat="1">
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>42605</v>
       </c>
@@ -2784,8 +3014,14 @@
       <c r="G36" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:39">
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>42605</v>
       </c>
@@ -2834,8 +3070,14 @@
       <c r="AF37">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:39">
+      <c r="AP37">
+        <v>0</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>20</v>
       </c>
@@ -2884,8 +3126,14 @@
       <c r="AM38" s="10">
         <v>42634</v>
       </c>
-    </row>
-    <row r="39" spans="1:39">
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>20</v>
       </c>
@@ -2934,8 +3182,14 @@
       <c r="AM39" s="10">
         <v>42634</v>
       </c>
-    </row>
-    <row r="40" spans="1:39">
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>20</v>
       </c>
@@ -2984,8 +3238,14 @@
       <c r="AM40" s="10">
         <v>42635</v>
       </c>
-    </row>
-    <row r="41" spans="1:39">
+      <c r="AP40">
+        <v>0</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>20</v>
       </c>
@@ -3034,8 +3294,14 @@
       <c r="AM41" s="10">
         <v>42635</v>
       </c>
-    </row>
-    <row r="42" spans="1:39">
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>20</v>
       </c>
@@ -3084,8 +3350,14 @@
       <c r="AM42" s="10">
         <v>42636</v>
       </c>
-    </row>
-    <row r="43" spans="1:39">
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>20</v>
       </c>
@@ -3134,30 +3406,36 @@
       <c r="AM43" s="10">
         <v>42636</v>
       </c>
-    </row>
-    <row r="44" spans="1:39">
+      <c r="AP43">
+        <v>0</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="3:3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" s="1"/>
     </row>
   </sheetData>
@@ -3172,19 +3450,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3192,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>42599</v>
       </c>
@@ -3203,7 +3481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>42599</v>
       </c>
@@ -3214,7 +3492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>42602</v>
       </c>
@@ -3222,7 +3500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>42602</v>
       </c>
@@ -3230,7 +3508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>42602</v>
       </c>
@@ -3238,7 +3516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>42604</v>
       </c>
@@ -3246,7 +3524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>42604</v>
       </c>
@@ -3254,7 +3532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>42604</v>
       </c>
@@ -3262,7 +3540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>42605</v>
       </c>
@@ -3270,7 +3548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>42606</v>
       </c>
@@ -3278,7 +3556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>42607</v>
       </c>
@@ -3286,7 +3564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>42607</v>
       </c>
@@ -3294,7 +3572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>42608</v>
       </c>
@@ -3302,7 +3580,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>42609</v>
       </c>
@@ -3319,7 +3597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3329,12 +3607,12 @@
       <selection pane="bottomRight" activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3357,7 +3635,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>42610</v>
       </c>
@@ -3380,7 +3658,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>42607</v>
       </c>
@@ -3403,7 +3681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>42608</v>
       </c>
@@ -3426,7 +3704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>42609</v>
       </c>
@@ -3449,7 +3727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>42607</v>
       </c>
@@ -3472,7 +3750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>42608</v>
       </c>
@@ -3495,7 +3773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>42610</v>
       </c>
@@ -3518,7 +3796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>42607</v>
       </c>
@@ -3541,7 +3819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>42616</v>
       </c>
@@ -3561,7 +3839,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>42615</v>
       </c>
@@ -3581,7 +3859,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>42615</v>
       </c>
@@ -3601,7 +3879,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>42609</v>
       </c>
@@ -3624,7 +3902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>42607</v>
       </c>
@@ -3647,7 +3925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>42609</v>
       </c>
@@ -3670,7 +3948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>42610</v>
       </c>
@@ -3693,7 +3971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>42608</v>
       </c>
@@ -3716,7 +3994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>42608</v>
       </c>
@@ -3739,7 +4017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>42614</v>
       </c>
@@ -3759,7 +4037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>42608</v>
       </c>
@@ -3782,7 +4060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>42614</v>
       </c>
@@ -3802,7 +4080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>42614</v>
       </c>
@@ -3822,7 +4100,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>42616</v>
       </c>
@@ -3842,7 +4120,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>42612</v>
       </c>
@@ -3865,7 +4143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>42614</v>
       </c>
@@ -3885,7 +4163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>42614</v>
       </c>
@@ -3905,7 +4183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>42610</v>
       </c>
@@ -3928,7 +4206,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>42609</v>
       </c>
@@ -3951,7 +4229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>42611</v>
       </c>
@@ -3974,7 +4252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>42614</v>
       </c>
@@ -3994,7 +4272,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>42612</v>
       </c>
@@ -4017,7 +4295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>42611</v>
       </c>
@@ -4040,7 +4318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>42612</v>
       </c>
@@ -4063,7 +4341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>42611</v>
       </c>
@@ -4086,7 +4364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>42607</v>
       </c>
@@ -4109,7 +4387,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>42611</v>
       </c>
@@ -4132,7 +4410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>42609</v>
       </c>
@@ -4155,7 +4433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>42611</v>
       </c>
@@ -4178,7 +4456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>42612</v>
       </c>
@@ -4201,7 +4479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>42608</v>
       </c>
@@ -4224,7 +4502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>42610</v>
       </c>
@@ -4247,7 +4525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>42612</v>
       </c>
@@ -4270,7 +4548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>42612</v>
       </c>
@@ -4293,7 +4571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>42611</v>
       </c>
@@ -4316,7 +4594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>42610</v>
       </c>
@@ -4339,7 +4617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>42609</v>
       </c>
@@ -4362,7 +4640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
         <v>42607</v>
       </c>
@@ -4385,7 +4663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
         <v>42611</v>
       </c>
@@ -4405,7 +4683,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
         <v>42611</v>
       </c>
@@ -4425,7 +4703,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>42611</v>
       </c>
@@ -4445,52 +4723,52 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>42978</v>
       </c>
@@ -4510,7 +4788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>42978</v>
       </c>
@@ -4533,7 +4811,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>42978</v>
       </c>
@@ -4556,7 +4834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>42978</v>
       </c>
@@ -4579,7 +4857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>42978</v>
       </c>
@@ -4602,7 +4880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>42978</v>
       </c>
@@ -4625,7 +4903,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
         <v>42978</v>
       </c>
@@ -4648,7 +4926,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>42978</v>
       </c>
@@ -4668,7 +4946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>42978</v>
       </c>
@@ -4706,16 +4984,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="10">
         <v>42607</v>
       </c>
@@ -4729,7 +5007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>42610</v>
       </c>
@@ -4743,7 +5021,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>42611</v>
       </c>
@@ -4757,7 +5035,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>42612</v>
       </c>
@@ -4771,7 +5049,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>42608</v>
       </c>
@@ -4785,7 +5063,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>42611</v>
       </c>
@@ -4799,7 +5077,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>42612</v>
       </c>
@@ -4813,7 +5091,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>42607</v>
       </c>
@@ -4827,7 +5105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>42609</v>
       </c>
@@ -4841,7 +5119,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>42611</v>
       </c>
@@ -4855,7 +5133,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>42612</v>
       </c>
@@ -4869,7 +5147,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>42548</v>
       </c>
@@ -4883,7 +5161,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>42611</v>
       </c>
@@ -4897,7 +5175,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>42610</v>
       </c>
@@ -4911,7 +5189,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>42611</v>
       </c>
@@ -4928,7 +5206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>42612</v>
       </c>
@@ -4942,7 +5220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>42612</v>
       </c>
@@ -4956,7 +5234,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>42611</v>
       </c>
@@ -4967,7 +5245,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>42611</v>
       </c>
@@ -4978,7 +5256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>42611</v>
       </c>

--- a/PlantTransExp/docs/2016_ViralTransmissionExp_ColonyLog.xlsx
+++ b/PlantTransExp/docs/2016_ViralTransmissionExp_ColonyLog.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samanthaalger/AlgerProjects/PlantTransExp/docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0484B7A-0DDB-1A41-8A89-B2CE9DDE1CAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="4640" windowWidth="17300" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment Data" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="Plants" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -417,7 +411,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1035,17 +1029,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP1" sqref="AP1"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="17.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
@@ -1072,7 +1066,7 @@
     <col min="32" max="32" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -1197,7 +1191,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43">
       <c r="A2" s="4">
         <v>42599</v>
       </c>
@@ -1254,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43">
       <c r="A3" s="4">
         <v>42599</v>
       </c>
@@ -1311,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43">
       <c r="A4" s="4">
         <v>42599</v>
       </c>
@@ -1368,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" s="15" customFormat="1">
       <c r="A5" s="13">
         <v>42599</v>
       </c>
@@ -1393,7 +1387,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43">
       <c r="A6" s="4">
         <v>42599</v>
       </c>
@@ -1450,7 +1444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43">
       <c r="A7" s="4">
         <v>42599</v>
       </c>
@@ -1507,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43">
       <c r="A8" s="4">
         <v>42599</v>
       </c>
@@ -1564,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43">
       <c r="A9" s="4">
         <v>42599</v>
       </c>
@@ -1621,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43">
       <c r="A10" s="4">
         <v>42599</v>
       </c>
@@ -1678,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43">
       <c r="A11" s="4">
         <v>42599</v>
       </c>
@@ -1735,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43">
       <c r="A12" s="4">
         <v>42599</v>
       </c>
@@ -1792,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43">
       <c r="A13" s="4">
         <v>42599</v>
       </c>
@@ -1849,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43">
       <c r="A14" s="4">
         <v>42599</v>
       </c>
@@ -1906,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43">
       <c r="A15" s="4">
         <v>42599</v>
       </c>
@@ -1963,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43">
       <c r="A16" s="4">
         <v>42599</v>
       </c>
@@ -2022,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43">
       <c r="A17" s="4">
         <v>42599</v>
       </c>
@@ -2079,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43">
       <c r="A18" s="4">
         <v>42599</v>
       </c>
@@ -2136,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43">
       <c r="A19" s="4">
         <v>42599</v>
       </c>
@@ -2187,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43">
       <c r="A20" s="4">
         <v>42602</v>
       </c>
@@ -2244,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43">
       <c r="A21" s="4">
         <v>42602</v>
       </c>
@@ -2309,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43">
       <c r="A22" s="4">
         <v>42602</v>
       </c>
@@ -2374,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43">
       <c r="A23" s="4">
         <v>42602</v>
       </c>
@@ -2439,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43">
       <c r="A24" s="4">
         <v>42602</v>
       </c>
@@ -2504,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43">
       <c r="A25" s="4">
         <v>42602</v>
       </c>
@@ -2569,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43">
       <c r="A26" s="4">
         <v>42605</v>
       </c>
@@ -2625,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43">
       <c r="A27" s="4">
         <v>42605</v>
       </c>
@@ -2690,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:43" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" s="15" customFormat="1">
       <c r="A28" s="13">
         <v>42605</v>
       </c>
@@ -2713,7 +2707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43">
       <c r="A29" s="4">
         <v>42605</v>
       </c>
@@ -2769,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43">
       <c r="A30" s="4">
         <v>42605</v>
       </c>
@@ -2825,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:43" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" s="15" customFormat="1">
       <c r="A31" s="13">
         <v>42605</v>
       </c>
@@ -2846,7 +2840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:43" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" s="15" customFormat="1">
       <c r="A32" s="13">
         <v>42605</v>
       </c>
@@ -2867,7 +2861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43">
       <c r="A33" s="4">
         <v>42605</v>
       </c>
@@ -2923,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:43">
       <c r="A34" s="4">
         <v>42605</v>
       </c>
@@ -2979,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:43" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:43" s="15" customFormat="1">
       <c r="A35" s="13">
         <v>42605</v>
       </c>
@@ -3000,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:43" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:43" s="15" customFormat="1">
       <c r="A36" s="13">
         <v>42605</v>
       </c>
@@ -3021,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:43">
       <c r="A37" s="4">
         <v>42605</v>
       </c>
@@ -3077,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:43">
       <c r="A38" s="3" t="s">
         <v>20</v>
       </c>
@@ -3133,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:43">
       <c r="A39" s="3" t="s">
         <v>20</v>
       </c>
@@ -3189,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:43">
       <c r="A40" s="3" t="s">
         <v>20</v>
       </c>
@@ -3245,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:43">
       <c r="A41" s="3" t="s">
         <v>20</v>
       </c>
@@ -3301,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:43">
       <c r="A42" s="3" t="s">
         <v>20</v>
       </c>
@@ -3357,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:43">
       <c r="A43" s="3" t="s">
         <v>20</v>
       </c>
@@ -3413,29 +3407,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:43">
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:43">
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:43">
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:43">
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:43">
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:3">
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:3">
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:3">
       <c r="C51" s="1"/>
     </row>
   </sheetData>
@@ -3450,19 +3444,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3470,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="9">
         <v>42599</v>
       </c>
@@ -3481,7 +3475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="9">
         <v>42599</v>
       </c>
@@ -3492,7 +3486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="9">
         <v>42602</v>
       </c>
@@ -3500,7 +3494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="9">
         <v>42602</v>
       </c>
@@ -3508,7 +3502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="9">
         <v>42602</v>
       </c>
@@ -3516,7 +3510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="9">
         <v>42604</v>
       </c>
@@ -3524,7 +3518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="9">
         <v>42604</v>
       </c>
@@ -3532,7 +3526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="9">
         <v>42604</v>
       </c>
@@ -3540,7 +3534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="9">
         <v>42605</v>
       </c>
@@ -3548,7 +3542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="9">
         <v>42606</v>
       </c>
@@ -3556,7 +3550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="9">
         <v>42607</v>
       </c>
@@ -3564,7 +3558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="9">
         <v>42607</v>
       </c>
@@ -3572,7 +3566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="9">
         <v>42608</v>
       </c>
@@ -3580,7 +3574,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="9">
         <v>42609</v>
       </c>
@@ -3597,7 +3591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3607,12 +3601,12 @@
       <selection pane="bottomRight" activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="4" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3635,7 +3629,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="10">
         <v>42610</v>
       </c>
@@ -3658,7 +3652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="10">
         <v>42607</v>
       </c>
@@ -3681,7 +3675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="10">
         <v>42608</v>
       </c>
@@ -3704,7 +3698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="10">
         <v>42609</v>
       </c>
@@ -3727,7 +3721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="10">
         <v>42607</v>
       </c>
@@ -3750,7 +3744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="10">
         <v>42608</v>
       </c>
@@ -3773,7 +3767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="10">
         <v>42610</v>
       </c>
@@ -3796,7 +3790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="10">
         <v>42607</v>
       </c>
@@ -3819,7 +3813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="10">
         <v>42616</v>
       </c>
@@ -3839,7 +3833,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="10">
         <v>42615</v>
       </c>
@@ -3859,7 +3853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="10">
         <v>42615</v>
       </c>
@@ -3879,7 +3873,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="10">
         <v>42609</v>
       </c>
@@ -3902,7 +3896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="10">
         <v>42607</v>
       </c>
@@ -3925,7 +3919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="10">
         <v>42609</v>
       </c>
@@ -3948,7 +3942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="10">
         <v>42610</v>
       </c>
@@ -3971,7 +3965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="10">
         <v>42608</v>
       </c>
@@ -3994,7 +3988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="10">
         <v>42608</v>
       </c>
@@ -4017,7 +4011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="10">
         <v>42614</v>
       </c>
@@ -4037,7 +4031,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="10">
         <v>42608</v>
       </c>
@@ -4060,7 +4054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="10">
         <v>42614</v>
       </c>
@@ -4080,7 +4074,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="10">
         <v>42614</v>
       </c>
@@ -4100,7 +4094,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="10">
         <v>42616</v>
       </c>
@@ -4120,7 +4114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="10">
         <v>42612</v>
       </c>
@@ -4143,7 +4137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="10">
         <v>42614</v>
       </c>
@@ -4163,7 +4157,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="10">
         <v>42614</v>
       </c>
@@ -4183,7 +4177,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="10">
         <v>42610</v>
       </c>
@@ -4206,7 +4200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="10">
         <v>42609</v>
       </c>
@@ -4229,7 +4223,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="10">
         <v>42611</v>
       </c>
@@ -4252,7 +4246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="10">
         <v>42614</v>
       </c>
@@ -4272,7 +4266,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="10">
         <v>42612</v>
       </c>
@@ -4295,7 +4289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="10">
         <v>42611</v>
       </c>
@@ -4318,7 +4312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="10">
         <v>42612</v>
       </c>
@@ -4341,7 +4335,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="10">
         <v>42611</v>
       </c>
@@ -4364,7 +4358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="10">
         <v>42607</v>
       </c>
@@ -4387,7 +4381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="10">
         <v>42611</v>
       </c>
@@ -4410,7 +4404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="10">
         <v>42609</v>
       </c>
@@ -4433,7 +4427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="10">
         <v>42611</v>
       </c>
@@ -4456,7 +4450,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="10">
         <v>42612</v>
       </c>
@@ -4479,7 +4473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="10">
         <v>42608</v>
       </c>
@@ -4502,7 +4496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="10">
         <v>42610</v>
       </c>
@@ -4525,7 +4519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="10">
         <v>42612</v>
       </c>
@@ -4548,7 +4542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="10">
         <v>42612</v>
       </c>
@@ -4571,7 +4565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="10">
         <v>42611</v>
       </c>
@@ -4594,7 +4588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="10">
         <v>42610</v>
       </c>
@@ -4617,7 +4611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="10">
         <v>42609</v>
       </c>
@@ -4640,7 +4634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="10">
         <v>42607</v>
       </c>
@@ -4663,7 +4657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="10">
         <v>42611</v>
       </c>
@@ -4683,7 +4677,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="10">
         <v>42611</v>
       </c>
@@ -4703,7 +4697,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="10">
         <v>42611</v>
       </c>
@@ -4723,52 +4717,52 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="F51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="F52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="F53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="F54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="F55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="F56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="F57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="F58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="F59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="9">
         <v>42978</v>
       </c>
@@ -4788,7 +4782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="9">
         <v>42978</v>
       </c>
@@ -4811,7 +4805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="9">
         <v>42978</v>
       </c>
@@ -4834,7 +4828,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="9">
         <v>42978</v>
       </c>
@@ -4857,7 +4851,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="9">
         <v>42978</v>
       </c>
@@ -4880,7 +4874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="9">
         <v>42978</v>
       </c>
@@ -4903,7 +4897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="9">
         <v>42978</v>
       </c>
@@ -4926,7 +4920,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="9">
         <v>42978</v>
       </c>
@@ -4946,7 +4940,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="9">
         <v>42978</v>
       </c>
@@ -4984,16 +4978,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="10">
         <v>42607</v>
       </c>
@@ -5007,7 +5001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="10">
         <v>42610</v>
       </c>
@@ -5021,7 +5015,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="10">
         <v>42611</v>
       </c>
@@ -5035,7 +5029,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="10">
         <v>42612</v>
       </c>
@@ -5049,7 +5043,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="10">
         <v>42608</v>
       </c>
@@ -5063,7 +5057,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="10">
         <v>42611</v>
       </c>
@@ -5077,7 +5071,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="10">
         <v>42612</v>
       </c>
@@ -5091,7 +5085,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="10">
         <v>42607</v>
       </c>
@@ -5105,7 +5099,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="10">
         <v>42609</v>
       </c>
@@ -5119,7 +5113,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="10">
         <v>42611</v>
       </c>
@@ -5133,7 +5127,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="10">
         <v>42612</v>
       </c>
@@ -5147,7 +5141,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="10">
         <v>42548</v>
       </c>
@@ -5161,7 +5155,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="10">
         <v>42611</v>
       </c>
@@ -5175,7 +5169,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="10">
         <v>42610</v>
       </c>
@@ -5189,7 +5183,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="10">
         <v>42611</v>
       </c>
@@ -5206,7 +5200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="10">
         <v>42612</v>
       </c>
@@ -5220,7 +5214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="10">
         <v>42612</v>
       </c>
@@ -5234,7 +5228,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="10">
         <v>42611</v>
       </c>
@@ -5245,7 +5239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="10">
         <v>42611</v>
       </c>
@@ -5256,7 +5250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="10">
         <v>42611</v>
       </c>
